--- a/contratos/contratos-3-2018.xlsx
+++ b/contratos/contratos-3-2018.xlsx
@@ -979,7 +979,7 @@
     <t>GILES MARCOS ARMANDO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1177,10 +1177,10 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1753,715 +1753,715 @@
     <t>11</t>
   </si>
   <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>6.320,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>149.000,00</t>
-  </si>
-  <si>
-    <t>32.400,00</t>
-  </si>
-  <si>
-    <t>450.000,00</t>
-  </si>
-  <si>
-    <t>561.000,00</t>
-  </si>
-  <si>
-    <t>3.225.600,00</t>
-  </si>
-  <si>
-    <t>1.062.000,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>1.761,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>160.000,00</t>
-  </si>
-  <si>
-    <t>486.379,96</t>
-  </si>
-  <si>
-    <t>492.898,00</t>
-  </si>
-  <si>
-    <t>495.000,00</t>
-  </si>
-  <si>
-    <t>1.745,00</t>
-  </si>
-  <si>
-    <t>8.740,02</t>
-  </si>
-  <si>
-    <t>1.692,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>482.214,50</t>
-  </si>
-  <si>
-    <t>557.475,24</t>
-  </si>
-  <si>
-    <t>63.050,00</t>
-  </si>
-  <si>
-    <t>151.217,54</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>100.976,50</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>50.082,00</t>
-  </si>
-  <si>
-    <t>63.974,20</t>
-  </si>
-  <si>
-    <t>8.775,00</t>
-  </si>
-  <si>
-    <t>1.200,38</t>
-  </si>
-  <si>
-    <t>2.845,92</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>233,40</t>
-  </si>
-  <si>
-    <t>28.266,00</t>
-  </si>
-  <si>
-    <t>18.900,90</t>
-  </si>
-  <si>
-    <t>1.113,00</t>
-  </si>
-  <si>
-    <t>9.016,27</t>
-  </si>
-  <si>
-    <t>31.566,00</t>
-  </si>
-  <si>
-    <t>57.750,96</t>
-  </si>
-  <si>
-    <t>303,28</t>
-  </si>
-  <si>
-    <t>1.462,80</t>
-  </si>
-  <si>
-    <t>9.999,00</t>
-  </si>
-  <si>
-    <t>10.166,00</t>
-  </si>
-  <si>
-    <t>39.733,02</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>1.916,64</t>
-  </si>
-  <si>
-    <t>9.787,03</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>3.500,20</t>
-  </si>
-  <si>
-    <t>2.950.000,00</t>
-  </si>
-  <si>
-    <t>4.328,89</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>4.157,53</t>
-  </si>
-  <si>
-    <t>216,00</t>
-  </si>
-  <si>
-    <t>17.009,00</t>
-  </si>
-  <si>
-    <t>3.309,05</t>
-  </si>
-  <si>
-    <t>6,04</t>
-  </si>
-  <si>
-    <t>751,99</t>
-  </si>
-  <si>
-    <t>378.187,05</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>242,00</t>
-  </si>
-  <si>
-    <t>8.161,25</t>
-  </si>
-  <si>
-    <t>9.391,81</t>
-  </si>
-  <si>
-    <t>11.176,32</t>
-  </si>
-  <si>
-    <t>4.500,01</t>
-  </si>
-  <si>
-    <t>2.710,00</t>
-  </si>
-  <si>
-    <t>57.110,01</t>
-  </si>
-  <si>
-    <t>21.645,00</t>
-  </si>
-  <si>
-    <t>27.610,02</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>2.223,00</t>
-  </si>
-  <si>
-    <t>707,65</t>
-  </si>
-  <si>
-    <t>86,11</t>
-  </si>
-  <si>
-    <t>2.626,00</t>
-  </si>
-  <si>
-    <t>25.480,00</t>
-  </si>
-  <si>
-    <t>11.025,00</t>
-  </si>
-  <si>
-    <t>910.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>18.270,00</t>
-  </si>
-  <si>
-    <t>439,32</t>
-  </si>
-  <si>
-    <t>15.850,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>3.940,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>370,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>4.073,00</t>
-  </si>
-  <si>
-    <t>1,64</t>
-  </si>
-  <si>
-    <t>1,08</t>
-  </si>
-  <si>
-    <t>25,75</t>
-  </si>
-  <si>
-    <t>0,77</t>
-  </si>
-  <si>
-    <t>16.734,86</t>
-  </si>
-  <si>
-    <t>13.762,00</t>
-  </si>
-  <si>
-    <t>29.656,61</t>
-  </si>
-  <si>
-    <t>7.747,01</t>
-  </si>
-  <si>
-    <t>19.790,00</t>
-  </si>
-  <si>
-    <t>5.342,50</t>
-  </si>
-  <si>
-    <t>2.931,00</t>
-  </si>
-  <si>
-    <t>28.150,00</t>
-  </si>
-  <si>
-    <t>1.375,00</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>222,00</t>
-  </si>
-  <si>
-    <t>25.625,00</t>
-  </si>
-  <si>
-    <t>4.297,80</t>
-  </si>
-  <si>
-    <t>16.936,20</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>15.444,64</t>
-  </si>
-  <si>
-    <t>4.927,00</t>
-  </si>
-  <si>
-    <t>63.392,00</t>
-  </si>
-  <si>
-    <t>132,00</t>
-  </si>
-  <si>
-    <t>493,00</t>
-  </si>
-  <si>
-    <t>99,48</t>
-  </si>
-  <si>
-    <t>29.627,00</t>
-  </si>
-  <si>
-    <t>2.365,00</t>
-  </si>
-  <si>
-    <t>36.343,53</t>
-  </si>
-  <si>
-    <t>18.434,80</t>
-  </si>
-  <si>
-    <t>1.122,00</t>
-  </si>
-  <si>
-    <t>5.393,30</t>
-  </si>
-  <si>
-    <t>37.310,00</t>
-  </si>
-  <si>
-    <t>1.809,00</t>
-  </si>
-  <si>
-    <t>12.345,17</t>
-  </si>
-  <si>
-    <t>10.600,00</t>
-  </si>
-  <si>
-    <t>71.000,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>8.650,00</t>
-  </si>
-  <si>
-    <t>20.079,00</t>
-  </si>
-  <si>
-    <t>3.225,00</t>
-  </si>
-  <si>
-    <t>3.025,90</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>89.150,00</t>
-  </si>
-  <si>
-    <t>66.400,00</t>
-  </si>
-  <si>
-    <t>18.800,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>108.000,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>3.748,49</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>33.776,00</t>
-  </si>
-  <si>
-    <t>929,98</t>
-  </si>
-  <si>
-    <t>79,59</t>
-  </si>
-  <si>
-    <t>34.730,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>15.138,50</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>76.889,38</t>
-  </si>
-  <si>
-    <t>60.552,00</t>
-  </si>
-  <si>
-    <t>9.110,00</t>
-  </si>
-  <si>
-    <t>298.500,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>4.330,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>14.800,00</t>
-  </si>
-  <si>
-    <t>9.750,00</t>
-  </si>
-  <si>
-    <t>4.104,00</t>
-  </si>
-  <si>
-    <t>146,10</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>15.023,36</t>
-  </si>
-  <si>
-    <t>40.666,99</t>
-  </si>
-  <si>
-    <t>7.202,00</t>
-  </si>
-  <si>
-    <t>6.140,75</t>
-  </si>
-  <si>
-    <t>255,08</t>
-  </si>
-  <si>
-    <t>32.201,60</t>
-  </si>
-  <si>
-    <t>12.079,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>5.234,83</t>
-  </si>
-  <si>
-    <t>6.249,16</t>
-  </si>
-  <si>
-    <t>36.585,27</t>
-  </si>
-  <si>
-    <t>14.523,84</t>
-  </si>
-  <si>
-    <t>8.060,81</t>
-  </si>
-  <si>
-    <t>2.670,00</t>
-  </si>
-  <si>
-    <t>7.881,00</t>
-  </si>
-  <si>
-    <t>3.486,18</t>
-  </si>
-  <si>
-    <t>4.281,00</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>215,34</t>
-  </si>
-  <si>
-    <t>3.080,00</t>
-  </si>
-  <si>
-    <t>8.164,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>7.320,00</t>
-  </si>
-  <si>
-    <t>12.093,91</t>
-  </si>
-  <si>
-    <t>5.851,56</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>10.326,36</t>
-  </si>
-  <si>
-    <t>59.900,00</t>
-  </si>
-  <si>
-    <t>19.956.264,93</t>
-  </si>
-  <si>
-    <t>437.000,00</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>144.500,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>294.000,00</t>
-  </si>
-  <si>
-    <t>453.500,00</t>
-  </si>
-  <si>
-    <t>162.500,00</t>
-  </si>
-  <si>
-    <t>342.500,00</t>
-  </si>
-  <si>
-    <t>478.000,00</t>
-  </si>
-  <si>
-    <t>244.000,00</t>
-  </si>
-  <si>
-    <t>275.750,00</t>
-  </si>
-  <si>
-    <t>398.632,41</t>
-  </si>
-  <si>
-    <t>264.823,00</t>
-  </si>
-  <si>
-    <t>3.099.992,45</t>
-  </si>
-  <si>
-    <t>78.800,00</t>
-  </si>
-  <si>
-    <t>586.645,93</t>
-  </si>
-  <si>
-    <t>495.178,92</t>
-  </si>
-  <si>
-    <t>464.887,50</t>
-  </si>
-  <si>
-    <t>56.000,00</t>
-  </si>
-  <si>
-    <t>859.892,35</t>
-  </si>
-  <si>
-    <t>24.300,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>4.040,82</t>
-  </si>
-  <si>
-    <t>936,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>103.024,25</t>
-  </si>
-  <si>
-    <t>300.000,00</t>
-  </si>
-  <si>
-    <t>14.500,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>1.402,68</t>
-  </si>
-  <si>
-    <t>26.164,00</t>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>6320.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>149000.00</t>
+  </si>
+  <si>
+    <t>32400.00</t>
+  </si>
+  <si>
+    <t>450000.00</t>
+  </si>
+  <si>
+    <t>561000.00</t>
+  </si>
+  <si>
+    <t>3225600.00</t>
+  </si>
+  <si>
+    <t>1062000.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>1761.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160000.00</t>
+  </si>
+  <si>
+    <t>486379.96</t>
+  </si>
+  <si>
+    <t>492898.00</t>
+  </si>
+  <si>
+    <t>495000.00</t>
+  </si>
+  <si>
+    <t>1745.00</t>
+  </si>
+  <si>
+    <t>8740.02</t>
+  </si>
+  <si>
+    <t>1692.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>482214.50</t>
+  </si>
+  <si>
+    <t>557475.24</t>
+  </si>
+  <si>
+    <t>63050.00</t>
+  </si>
+  <si>
+    <t>151217.54</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>100976.50</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>50082.00</t>
+  </si>
+  <si>
+    <t>63974.20</t>
+  </si>
+  <si>
+    <t>8775.00</t>
+  </si>
+  <si>
+    <t>1200.38</t>
+  </si>
+  <si>
+    <t>2845.92</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>233.40</t>
+  </si>
+  <si>
+    <t>28266.00</t>
+  </si>
+  <si>
+    <t>18900.90</t>
+  </si>
+  <si>
+    <t>1113.00</t>
+  </si>
+  <si>
+    <t>9016.27</t>
+  </si>
+  <si>
+    <t>31566.00</t>
+  </si>
+  <si>
+    <t>57750.96</t>
+  </si>
+  <si>
+    <t>303.28</t>
+  </si>
+  <si>
+    <t>1462.80</t>
+  </si>
+  <si>
+    <t>9999.00</t>
+  </si>
+  <si>
+    <t>10166.00</t>
+  </si>
+  <si>
+    <t>39733.02</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>1916.64</t>
+  </si>
+  <si>
+    <t>9787.03</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>3500.20</t>
+  </si>
+  <si>
+    <t>2950000.00</t>
+  </si>
+  <si>
+    <t>4328.89</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>4157.53</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>17009.00</t>
+  </si>
+  <si>
+    <t>3309.05</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>751.99</t>
+  </si>
+  <si>
+    <t>378187.05</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>8161.25</t>
+  </si>
+  <si>
+    <t>9391.81</t>
+  </si>
+  <si>
+    <t>11176.32</t>
+  </si>
+  <si>
+    <t>4500.01</t>
+  </si>
+  <si>
+    <t>2710.00</t>
+  </si>
+  <si>
+    <t>57110.01</t>
+  </si>
+  <si>
+    <t>21645.00</t>
+  </si>
+  <si>
+    <t>27610.02</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2223.00</t>
+  </si>
+  <si>
+    <t>707.65</t>
+  </si>
+  <si>
+    <t>86.11</t>
+  </si>
+  <si>
+    <t>2626.00</t>
+  </si>
+  <si>
+    <t>25480.00</t>
+  </si>
+  <si>
+    <t>11025.00</t>
+  </si>
+  <si>
+    <t>910000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>18270.00</t>
+  </si>
+  <si>
+    <t>439.32</t>
+  </si>
+  <si>
+    <t>15850.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>3940.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>4073.00</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>25.75</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>16734.86</t>
+  </si>
+  <si>
+    <t>13762.00</t>
+  </si>
+  <si>
+    <t>29656.61</t>
+  </si>
+  <si>
+    <t>7747.01</t>
+  </si>
+  <si>
+    <t>19790.00</t>
+  </si>
+  <si>
+    <t>5342.50</t>
+  </si>
+  <si>
+    <t>2931.00</t>
+  </si>
+  <si>
+    <t>28150.00</t>
+  </si>
+  <si>
+    <t>1375.00</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>25625.00</t>
+  </si>
+  <si>
+    <t>4297.80</t>
+  </si>
+  <si>
+    <t>16936.20</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>15444.64</t>
+  </si>
+  <si>
+    <t>4927.00</t>
+  </si>
+  <si>
+    <t>63392.00</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>493.00</t>
+  </si>
+  <si>
+    <t>99.48</t>
+  </si>
+  <si>
+    <t>29627.00</t>
+  </si>
+  <si>
+    <t>2365.00</t>
+  </si>
+  <si>
+    <t>36343.53</t>
+  </si>
+  <si>
+    <t>18434.80</t>
+  </si>
+  <si>
+    <t>1122.00</t>
+  </si>
+  <si>
+    <t>5393.30</t>
+  </si>
+  <si>
+    <t>37310.00</t>
+  </si>
+  <si>
+    <t>1809.00</t>
+  </si>
+  <si>
+    <t>12345.17</t>
+  </si>
+  <si>
+    <t>10600.00</t>
+  </si>
+  <si>
+    <t>71000.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>8650.00</t>
+  </si>
+  <si>
+    <t>20079.00</t>
+  </si>
+  <si>
+    <t>3225.00</t>
+  </si>
+  <si>
+    <t>3025.90</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>89150.00</t>
+  </si>
+  <si>
+    <t>66400.00</t>
+  </si>
+  <si>
+    <t>18800.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>108000.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>3748.49</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>33776.00</t>
+  </si>
+  <si>
+    <t>929.98</t>
+  </si>
+  <si>
+    <t>79.59</t>
+  </si>
+  <si>
+    <t>34730.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>15138.50</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>76889.38</t>
+  </si>
+  <si>
+    <t>60552.00</t>
+  </si>
+  <si>
+    <t>9110.00</t>
+  </si>
+  <si>
+    <t>298500.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>4330.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>14800.00</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>4104.00</t>
+  </si>
+  <si>
+    <t>146.10</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>15023.36</t>
+  </si>
+  <si>
+    <t>40666.99</t>
+  </si>
+  <si>
+    <t>7202.00</t>
+  </si>
+  <si>
+    <t>6140.75</t>
+  </si>
+  <si>
+    <t>255.08</t>
+  </si>
+  <si>
+    <t>32201.60</t>
+  </si>
+  <si>
+    <t>12079.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>5234.83</t>
+  </si>
+  <si>
+    <t>6249.16</t>
+  </si>
+  <si>
+    <t>36585.27</t>
+  </si>
+  <si>
+    <t>14523.84</t>
+  </si>
+  <si>
+    <t>8060.81</t>
+  </si>
+  <si>
+    <t>2670.00</t>
+  </si>
+  <si>
+    <t>7881.00</t>
+  </si>
+  <si>
+    <t>3486.18</t>
+  </si>
+  <si>
+    <t>4281.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>215.34</t>
+  </si>
+  <si>
+    <t>3080.00</t>
+  </si>
+  <si>
+    <t>8164.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>7320.00</t>
+  </si>
+  <si>
+    <t>12093.91</t>
+  </si>
+  <si>
+    <t>5851.56</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>10326.36</t>
+  </si>
+  <si>
+    <t>59900.00</t>
+  </si>
+  <si>
+    <t>19956264.93</t>
+  </si>
+  <si>
+    <t>437000.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>144500.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>294000.00</t>
+  </si>
+  <si>
+    <t>453500.00</t>
+  </si>
+  <si>
+    <t>162500.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>478000.00</t>
+  </si>
+  <si>
+    <t>244000.00</t>
+  </si>
+  <si>
+    <t>275750.00</t>
+  </si>
+  <si>
+    <t>398632.41</t>
+  </si>
+  <si>
+    <t>264823.00</t>
+  </si>
+  <si>
+    <t>3099992.45</t>
+  </si>
+  <si>
+    <t>78800.00</t>
+  </si>
+  <si>
+    <t>586645.93</t>
+  </si>
+  <si>
+    <t>495178.92</t>
+  </si>
+  <si>
+    <t>464887.50</t>
+  </si>
+  <si>
+    <t>56000.00</t>
+  </si>
+  <si>
+    <t>859892.35</t>
+  </si>
+  <si>
+    <t>24300.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>4040.82</t>
+  </si>
+  <si>
+    <t>936.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>103024.25</t>
+  </si>
+  <si>
+    <t>300000.00</t>
+  </si>
+  <si>
+    <t>14500.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>1402.68</t>
+  </si>
+  <si>
+    <t>26164.00</t>
   </si>
 </sst>
 </file>
